--- a/biology/Médecine/Victor_Thibout_de_la_Fresnaye/Victor_Thibout_de_la_Fresnaye.xlsx
+++ b/biology/Médecine/Victor_Thibout_de_la_Fresnaye/Victor_Thibout_de_la_Fresnaye.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Thibout de la Fresnaye, né le 26 juin 1805 à Martigny-sur-l'Ante (Calvados) et mort le 2 avril 1861 à Caen, est un médecin français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Thibout de la Fresnaye, fils de Jacques François Julien Thibout de la Fresnaye, sieur du Cammorice et de Louise Marie Victoire Lecellier, est issu d'une très ancienne famille normande.
 Docteur en médecine comme beaucoup d'autres, il est cependant le premier à s'intéresser aux bienfaits du caoutchouc dans la fibre textile. En 1828, avec deux amis, ils réunissent leurs épargnes d'étudiants et louent une cave dans laquelle ils installent un appareillage de filage mû par un cheval ! Ils parviennent à réaliser des tresses et des tissus élastiques : une petite révolution et la naissance d'une nouvelle industrie moderne !
@@ -554,7 +568,9 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une rue de Caen porte son nom depuis 1954.
 </t>
@@ -585,7 +601,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Document déposé à la bibliothèque municipale de la ville de Caen et publié dans la revue Nos ancêtres, vie et métiers (no 20 juillet et août 2006) par Christophe Poulain-Devreux, petit-fils de Berthe Thibout de la Fresnaye, elle-même petite-nièce du docteur.
 La thèse du Docteur est consultable au Fonds Normand de la bibliothèque municipale de Caen (Cote : FN BR 11221) et aux archives départementales du Calvados.
